--- a/Vanzari_fructe.xlsx
+++ b/Vanzari_fructe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Machine_learning\Machine_learning_projects\NumPy_for_ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A384C59-F980-47C4-A5B1-34240C5A2DC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D266CB-F529-41BB-84ED-F563CBF2A847}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="630" windowWidth="19440" windowHeight="15000" xr2:uid="{71C772D4-CD58-4069-A8DC-BB3E09EAF8C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71C772D4-CD58-4069-A8DC-BB3E09EAF8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,10 @@
       <c r="D2" s="2">
         <v>23</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2">
+        <f>B2*B12+C2*C12+D2*D12</f>
+        <v>1486</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -506,7 +509,10 @@
       <c r="D3" s="2">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <f>B3*B12+C3*C12+D3*D12</f>
+        <v>2093</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -521,7 +527,10 @@
       <c r="D4" s="2">
         <v>34</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <f>B4*B12+C4*C12+D4*D12</f>
+        <v>1913</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -536,7 +545,10 @@
       <c r="D5" s="2">
         <v>26</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <f>B5*B12+C5*C12+D5*D12</f>
+        <v>1737</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -551,7 +563,10 @@
       <c r="D6" s="2">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <f>B6*B12+C6*C12+D6*D12</f>
+        <v>1037</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -566,7 +581,10 @@
       <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <f>B7*B12+C7*C12+D7*D12</f>
+        <v>1002</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -581,7 +599,10 @@
       <c r="D8" s="2">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <f>B8*B12+C8*C12+D8*D12</f>
+        <v>1278</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
